--- a/Sampling frame draft_13.12.2021_From Colleen.xlsx
+++ b/Sampling frame draft_13.12.2021_From Colleen.xlsx
@@ -5,26 +5,26 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCAS\Desktop\QMU\REDRESS\REDRESS_sample_size\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCAS\Desktop\QMU\REDDRESS_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A38F1A-E7DC-4433-B354-258FF61118A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5F6039-7903-4E25-8772-2354613B3CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58694DAC-EE20-FF4F-B6D6-03672E5E7466}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$H$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$140</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
-    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="32" r:id="rId5"/>
+    <pivotCache cacheId="33" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -757,10 +757,39 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
@@ -768,7 +797,28 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39997558519241921"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -803,70 +853,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor theme="4" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
@@ -874,176 +860,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
@@ -42034,7 +41850,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCA04ED2-E10F-4E03-BC28-18FA514B8515}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCA04ED2-E10F-4E03-BC28-18FA514B8515}" name="PivotTable4" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H1:I24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="44">
     <pivotField showAll="0"/>
@@ -42331,7 +42147,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E37AC11-72E3-4D7D-9642-983AFFE1A847}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E37AC11-72E3-4D7D-9642-983AFFE1A847}" name="PivotTable2" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:E21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -42462,12 +42278,12 @@
     <dataField name="Sum of SSSD cases 2019 (total)" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="4">
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="1">
       <pivotAreas count="3">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
             <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
+              <x v="3"/>
             </reference>
             <reference field="6" count="4">
               <x v="2"/>
@@ -42483,7 +42299,7 @@
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
             <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
+              <x v="3"/>
             </reference>
             <reference field="6" count="6">
               <x v="3"/>
@@ -42501,63 +42317,7 @@
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
             <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="6" count="6">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="4"/>
-              <x v="8"/>
-              <x v="10"/>
-              <x v="12"/>
-            </reference>
-            <reference field="7" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="3">
-      <pivotAreas count="3">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="6" count="4">
-              <x v="2"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="9"/>
-            </reference>
-            <reference field="7" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="6" count="6">
               <x v="3"/>
-              <x v="7"/>
-              <x v="11"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-            </reference>
-            <reference field="7" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
             </reference>
             <reference field="6" count="6">
               <x v="0"/>
@@ -42630,12 +42390,12 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="3">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
             <reference field="4294967294" count="1" selected="0">
-              <x v="3"/>
+              <x v="0"/>
             </reference>
             <reference field="6" count="4">
               <x v="2"/>
@@ -42651,7 +42411,7 @@
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
             <reference field="4294967294" count="1" selected="0">
-              <x v="3"/>
+              <x v="0"/>
             </reference>
             <reference field="6" count="6">
               <x v="3"/>
@@ -42669,7 +42429,63 @@
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
             <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="6">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="4"/>
+              <x v="8"/>
+              <x v="10"/>
+              <x v="12"/>
+            </reference>
+            <reference field="7" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="3">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="6" count="4">
+              <x v="2"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="9"/>
+            </reference>
+            <reference field="7" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="6" count="6">
               <x v="3"/>
+              <x v="7"/>
+              <x v="11"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+            </reference>
+            <reference field="7" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
             </reference>
             <reference field="6" count="6">
               <x v="0"/>
@@ -42738,7 +42554,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{994AC756-9DA0-4E32-80A1-B218FD27521E}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{994AC756-9DA0-4E32-80A1-B218FD27521E}" name="PivotTable1" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -42869,7 +42685,7 @@
     <dataField name="Count of Facility name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="15">
-    <format dxfId="15">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -42884,7 +42700,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -42896,7 +42712,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -42908,7 +42724,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -42920,7 +42736,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -42932,7 +42748,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -42944,7 +42760,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -42956,7 +42772,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -42968,7 +42784,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -42980,7 +42796,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -42992,7 +42808,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -43007,7 +42823,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -43022,7 +42838,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -43037,7 +42853,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -43052,7 +42868,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -43069,6 +42885,62 @@
     </format>
   </formats>
   <conditionalFormats count="2">
+    <conditionalFormat priority="1">
+      <pivotAreas count="3">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="6" count="6">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="4"/>
+              <x v="8"/>
+              <x v="10"/>
+              <x v="12"/>
+            </reference>
+            <reference field="7" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="6" count="6">
+              <x v="3"/>
+              <x v="7"/>
+              <x v="11"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+            </reference>
+            <reference field="7" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="6" count="4">
+              <x v="2"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="9"/>
+            </reference>
+            <reference field="7" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
     <conditionalFormat priority="2">
       <pivotAreas count="3">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -43111,62 +42983,6 @@
           <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="2"/>
-            </reference>
-            <reference field="6" count="4">
-              <x v="2"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="9"/>
-            </reference>
-            <reference field="7" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="3">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="6" count="6">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="4"/>
-              <x v="8"/>
-              <x v="10"/>
-              <x v="12"/>
-            </reference>
-            <reference field="7" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="6" count="6">
-              <x v="3"/>
-              <x v="7"/>
-              <x v="11"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-            </reference>
-            <reference field="7" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="3"/>
             </reference>
             <reference field="6" count="4">
               <x v="2"/>
@@ -43490,10 +43306,3678 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED4F7AD-CC99-D347-A53C-51447CE0F129}">
+  <dimension ref="A1:H144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="8" width="19.8984375" customWidth="1"/>
+    <col min="9" max="9" width="27.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>21154</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>6639</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>12893</v>
+      </c>
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>17822</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>6972</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>4384</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1041</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>5518</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>9626</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>5487</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>2958</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>22399</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>8142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>5879</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2587</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>22500</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>6666</v>
+      </c>
+      <c r="G19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>6841</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2433</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1573</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1241</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>6564</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>4703</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>135</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>3277</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>934</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>5637</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>4014</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1283</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>4826</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4372</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2936</v>
+      </c>
+      <c r="G34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>21945</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>12636</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>11185</v>
+      </c>
+      <c r="G37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>11080</v>
+      </c>
+      <c r="G38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>6609</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>5382</v>
+      </c>
+      <c r="G40" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>5083</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>4457</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>6071</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>15149</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>3749</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>4848</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>16920</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>3689</v>
+      </c>
+      <c r="G48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1643</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>3909</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>3579</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>25</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>26</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>5196</v>
+      </c>
+      <c r="G53" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1332</v>
+      </c>
+      <c r="G54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2718</v>
+      </c>
+      <c r="G55" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1825</v>
+      </c>
+      <c r="G56" t="s">
+        <v>49</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>3927</v>
+      </c>
+      <c r="G57" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>12623</v>
+      </c>
+      <c r="G58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>43</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1705</v>
+      </c>
+      <c r="G59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>8553</v>
+      </c>
+      <c r="G60" t="s">
+        <v>52</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1712</v>
+      </c>
+      <c r="G61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2656</v>
+      </c>
+      <c r="G62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>9205</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>2623</v>
+      </c>
+      <c r="G64" t="s">
+        <v>82</v>
+      </c>
+      <c r="H64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>2307</v>
+      </c>
+      <c r="G65" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>57</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>1927</v>
+      </c>
+      <c r="G66" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>1866</v>
+      </c>
+      <c r="G67" t="s">
+        <v>52</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>636</v>
+      </c>
+      <c r="G68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>61</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>62</v>
+      </c>
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>5982</v>
+      </c>
+      <c r="G70" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>63</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>2342</v>
+      </c>
+      <c r="G71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>64</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>2539</v>
+      </c>
+      <c r="G72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1854</v>
+      </c>
+      <c r="G73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>66</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>5435</v>
+      </c>
+      <c r="G74" t="s">
+        <v>82</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>1465</v>
+      </c>
+      <c r="G75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>68</v>
+      </c>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>4865</v>
+      </c>
+      <c r="G76" t="s">
+        <v>82</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>69</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>10389</v>
+      </c>
+      <c r="G77" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>70</v>
+      </c>
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>6967</v>
+      </c>
+      <c r="G78" t="s">
+        <v>89</v>
+      </c>
+      <c r="H78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>71</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>73</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>38339</v>
+      </c>
+      <c r="G81" t="s">
+        <v>94</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>5565</v>
+      </c>
+      <c r="G82" t="s">
+        <v>97</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>6977</v>
+      </c>
+      <c r="G83" t="s">
+        <v>97</v>
+      </c>
+      <c r="H83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>77</v>
+      </c>
+      <c r="B84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>11941</v>
+      </c>
+      <c r="G84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>78</v>
+      </c>
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>11900</v>
+      </c>
+      <c r="G85" t="s">
+        <v>101</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>79</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>80</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>543</v>
+      </c>
+      <c r="G87" t="s">
+        <v>101</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>81</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>82</v>
+      </c>
+      <c r="B89" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>2933</v>
+      </c>
+      <c r="G89" t="s">
+        <v>101</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>84</v>
+      </c>
+      <c r="B90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>3025</v>
+      </c>
+      <c r="G90" t="s">
+        <v>101</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>85</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>86</v>
+      </c>
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>9160</v>
+      </c>
+      <c r="G92" t="s">
+        <v>109</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>87</v>
+      </c>
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>10729</v>
+      </c>
+      <c r="G93" t="s">
+        <v>109</v>
+      </c>
+      <c r="H93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>54284</v>
+      </c>
+      <c r="G94" t="s">
+        <v>109</v>
+      </c>
+      <c r="H94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>90</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>91</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>92</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>93</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>94</v>
+      </c>
+      <c r="B99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>5563</v>
+      </c>
+      <c r="G99" t="s">
+        <v>118</v>
+      </c>
+      <c r="H99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>95</v>
+      </c>
+      <c r="B100" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>7708</v>
+      </c>
+      <c r="G100" t="s">
+        <v>118</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>96</v>
+      </c>
+      <c r="B101" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>3457</v>
+      </c>
+      <c r="G101" t="s">
+        <v>118</v>
+      </c>
+      <c r="H101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>98</v>
+      </c>
+      <c r="B102" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>6873</v>
+      </c>
+      <c r="G102" t="s">
+        <v>118</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>99</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>136</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2">
+        <v>2</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>101</v>
+      </c>
+      <c r="B105" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>39602</v>
+      </c>
+      <c r="G105" t="s">
+        <v>125</v>
+      </c>
+      <c r="H105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>102</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>103</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>104</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>105</v>
+      </c>
+      <c r="B109" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>2502</v>
+      </c>
+      <c r="G109" t="s">
+        <v>125</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>106</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>107</v>
+      </c>
+      <c r="B111" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>14480</v>
+      </c>
+      <c r="G111" t="s">
+        <v>125</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>108</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>109</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>110</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>111</v>
+      </c>
+      <c r="B115" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>8561</v>
+      </c>
+      <c r="G115" t="s">
+        <v>125</v>
+      </c>
+      <c r="H115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>112</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>113</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>114</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>115</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>116</v>
+      </c>
+      <c r="B120" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>2578</v>
+      </c>
+      <c r="G120" t="s">
+        <v>125</v>
+      </c>
+      <c r="H120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>117</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0</v>
+      </c>
+      <c r="F121" s="2">
+        <v>0</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>118</v>
+      </c>
+      <c r="B122" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>7302</v>
+      </c>
+      <c r="G122" t="s">
+        <v>125</v>
+      </c>
+      <c r="H122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>119</v>
+      </c>
+      <c r="B123" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>2981</v>
+      </c>
+      <c r="G123" t="s">
+        <v>125</v>
+      </c>
+      <c r="H123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>120</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>121</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0</v>
+      </c>
+      <c r="F125" s="2">
+        <v>0</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>122</v>
+      </c>
+      <c r="B126" t="s">
+        <v>149</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>16091</v>
+      </c>
+      <c r="G126" t="s">
+        <v>125</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>123</v>
+      </c>
+      <c r="B127" t="s">
+        <v>150</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>4872</v>
+      </c>
+      <c r="G127" t="s">
+        <v>125</v>
+      </c>
+      <c r="H127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>124</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0</v>
+      </c>
+      <c r="F128" s="2">
+        <v>0</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>126</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0</v>
+      </c>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>127</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0</v>
+      </c>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>128</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>129</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
+      <c r="E132" s="2">
+        <v>0</v>
+      </c>
+      <c r="F132" s="2">
+        <v>0</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>130</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="2">
+        <v>0</v>
+      </c>
+      <c r="F133" s="2">
+        <v>0</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>131</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0</v>
+      </c>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135" t="s">
+        <v>160</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>3851</v>
+      </c>
+      <c r="G135" t="s">
+        <v>151</v>
+      </c>
+      <c r="H135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>133</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0</v>
+      </c>
+      <c r="F136" s="2">
+        <v>0</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137" t="s">
+        <v>162</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>14353</v>
+      </c>
+      <c r="G137" t="s">
+        <v>151</v>
+      </c>
+      <c r="H137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>100</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1</v>
+      </c>
+      <c r="F138" s="2">
+        <v>0</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="2">
+        <v>0</v>
+      </c>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>166</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>20733</v>
+      </c>
+      <c r="G140" t="s">
+        <v>151</v>
+      </c>
+      <c r="H140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>171</v>
+      </c>
+      <c r="D142">
+        <v>166</v>
+      </c>
+      <c r="E142">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H140" xr:uid="{9ED4F7AD-CC99-D347-A53C-51447CE0F129}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H140">
+      <sortCondition descending="1" ref="D1:D140"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151AE14D-79E6-4DE0-A82A-5F8441B42492}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -44156,7 +47640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA42DD-4BA6-4CFC-9777-FCE3E51343EB}">
   <dimension ref="E13:F30"/>
   <sheetViews>
@@ -44297,3674 +47781,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED4F7AD-CC99-D347-A53C-51447CE0F129}">
-  <dimension ref="A1:H144"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="8" width="19.8984375" customWidth="1"/>
-    <col min="9" max="9" width="27.8984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>32</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>21154</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>6639</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>88</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>12893</v>
-      </c>
-      <c r="G4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>17822</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>6972</v>
-      </c>
-      <c r="G6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>4384</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1041</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>3274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>5518</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>9626</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>5487</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>2958</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>22399</v>
-      </c>
-      <c r="G14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>8142</v>
-      </c>
-      <c r="G15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>5879</v>
-      </c>
-      <c r="G16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>2587</v>
-      </c>
-      <c r="G17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>18</v>
-      </c>
-      <c r="F18">
-        <v>22500</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>139</v>
-      </c>
-      <c r="B19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>6666</v>
-      </c>
-      <c r="G19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>6841</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>2433</v>
-      </c>
-      <c r="G21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1573</v>
-      </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1241</v>
-      </c>
-      <c r="G23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>6564</v>
-      </c>
-      <c r="G24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>4703</v>
-      </c>
-      <c r="G25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>135</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <v>3277</v>
-      </c>
-      <c r="G27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>934</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>5637</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>4014</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1283</v>
-      </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32">
-        <v>4826</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>4372</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>2936</v>
-      </c>
-      <c r="G34" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>21945</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>9</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>12636</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>97</v>
-      </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>11185</v>
-      </c>
-      <c r="G37" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>56</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>11080</v>
-      </c>
-      <c r="G38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>20</v>
-      </c>
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>6609</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>5382</v>
-      </c>
-      <c r="G40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>49</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>11</v>
-      </c>
-      <c r="F41">
-        <v>5083</v>
-      </c>
-      <c r="G41" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>4457</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>12</v>
-      </c>
-      <c r="B43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>6071</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>14</v>
-      </c>
-      <c r="B44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>15149</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>67</v>
-      </c>
-      <c r="B45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>3749</v>
-      </c>
-      <c r="G45" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>17</v>
-      </c>
-      <c r="B46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>4848</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>19</v>
-      </c>
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>16920</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>39</v>
-      </c>
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>11</v>
-      </c>
-      <c r="F48">
-        <v>3689</v>
-      </c>
-      <c r="G48" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>22</v>
-      </c>
-      <c r="B49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1643</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>23</v>
-      </c>
-      <c r="B50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>3909</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>24</v>
-      </c>
-      <c r="B51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>3579</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>25</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>26</v>
-      </c>
-      <c r="B53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>5196</v>
-      </c>
-      <c r="G53" t="s">
-        <v>49</v>
-      </c>
-      <c r="H53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>28</v>
-      </c>
-      <c r="B54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1332</v>
-      </c>
-      <c r="G54" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>30</v>
-      </c>
-      <c r="B55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>2718</v>
-      </c>
-      <c r="G55" t="s">
-        <v>49</v>
-      </c>
-      <c r="H55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>31</v>
-      </c>
-      <c r="B56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1825</v>
-      </c>
-      <c r="G56" t="s">
-        <v>49</v>
-      </c>
-      <c r="H56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>34</v>
-      </c>
-      <c r="B57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>3927</v>
-      </c>
-      <c r="G57" t="s">
-        <v>49</v>
-      </c>
-      <c r="H57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>37</v>
-      </c>
-      <c r="B58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>12623</v>
-      </c>
-      <c r="G58" t="s">
-        <v>52</v>
-      </c>
-      <c r="H58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>43</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>1705</v>
-      </c>
-      <c r="G59" t="s">
-        <v>52</v>
-      </c>
-      <c r="H59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>45</v>
-      </c>
-      <c r="B60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>8553</v>
-      </c>
-      <c r="G60" t="s">
-        <v>52</v>
-      </c>
-      <c r="H60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>50</v>
-      </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1712</v>
-      </c>
-      <c r="G61" t="s">
-        <v>52</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>51</v>
-      </c>
-      <c r="B62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>2656</v>
-      </c>
-      <c r="G62" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>53</v>
-      </c>
-      <c r="B63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>9205</v>
-      </c>
-      <c r="G63" t="s">
-        <v>68</v>
-      </c>
-      <c r="H63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>2623</v>
-      </c>
-      <c r="G64" t="s">
-        <v>82</v>
-      </c>
-      <c r="H64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>72</v>
-      </c>
-      <c r="B65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>2307</v>
-      </c>
-      <c r="G65" t="s">
-        <v>89</v>
-      </c>
-      <c r="H65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>57</v>
-      </c>
-      <c r="B66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>3</v>
-      </c>
-      <c r="F66">
-        <v>1927</v>
-      </c>
-      <c r="G66" t="s">
-        <v>68</v>
-      </c>
-      <c r="H66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>38</v>
-      </c>
-      <c r="B67" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
-      </c>
-      <c r="F67">
-        <v>1866</v>
-      </c>
-      <c r="G67" t="s">
-        <v>52</v>
-      </c>
-      <c r="H67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>60</v>
-      </c>
-      <c r="B68" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>636</v>
-      </c>
-      <c r="G68" t="s">
-        <v>68</v>
-      </c>
-      <c r="H68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>61</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2">
-        <v>0</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>62</v>
-      </c>
-      <c r="B70" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>5982</v>
-      </c>
-      <c r="G70" t="s">
-        <v>79</v>
-      </c>
-      <c r="H70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>63</v>
-      </c>
-      <c r="B71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>2342</v>
-      </c>
-      <c r="G71" t="s">
-        <v>82</v>
-      </c>
-      <c r="H71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>64</v>
-      </c>
-      <c r="B72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>2539</v>
-      </c>
-      <c r="G72" t="s">
-        <v>82</v>
-      </c>
-      <c r="H72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>58</v>
-      </c>
-      <c r="B73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>1854</v>
-      </c>
-      <c r="G73" t="s">
-        <v>68</v>
-      </c>
-      <c r="H73" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>66</v>
-      </c>
-      <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>5435</v>
-      </c>
-      <c r="G74" t="s">
-        <v>82</v>
-      </c>
-      <c r="H74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>15</v>
-      </c>
-      <c r="B75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>3</v>
-      </c>
-      <c r="F75">
-        <v>1465</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
-      <c r="H75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>68</v>
-      </c>
-      <c r="B76" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>4865</v>
-      </c>
-      <c r="G76" t="s">
-        <v>82</v>
-      </c>
-      <c r="H76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>69</v>
-      </c>
-      <c r="B77" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>10389</v>
-      </c>
-      <c r="G77" t="s">
-        <v>89</v>
-      </c>
-      <c r="H77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>70</v>
-      </c>
-      <c r="B78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>6967</v>
-      </c>
-      <c r="G78" t="s">
-        <v>89</v>
-      </c>
-      <c r="H78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>71</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
-      <c r="E79" s="2">
-        <v>0</v>
-      </c>
-      <c r="F79" s="2">
-        <v>0</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>73</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0</v>
-      </c>
-      <c r="E80" s="2">
-        <v>0</v>
-      </c>
-      <c r="F80" s="2">
-        <v>0</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>74</v>
-      </c>
-      <c r="B81" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>38339</v>
-      </c>
-      <c r="G81" t="s">
-        <v>94</v>
-      </c>
-      <c r="H81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>75</v>
-      </c>
-      <c r="B82" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>5565</v>
-      </c>
-      <c r="G82" t="s">
-        <v>97</v>
-      </c>
-      <c r="H82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>76</v>
-      </c>
-      <c r="B83" t="s">
-        <v>99</v>
-      </c>
-      <c r="C83" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>6977</v>
-      </c>
-      <c r="G83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>77</v>
-      </c>
-      <c r="B84" t="s">
-        <v>100</v>
-      </c>
-      <c r="C84" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>11941</v>
-      </c>
-      <c r="G84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>78</v>
-      </c>
-      <c r="B85" t="s">
-        <v>102</v>
-      </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>11900</v>
-      </c>
-      <c r="G85" t="s">
-        <v>101</v>
-      </c>
-      <c r="H85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>79</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="2">
-        <v>0</v>
-      </c>
-      <c r="F86" s="2">
-        <v>0</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>80</v>
-      </c>
-      <c r="B87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>543</v>
-      </c>
-      <c r="G87" t="s">
-        <v>101</v>
-      </c>
-      <c r="H87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>81</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2">
-        <v>0</v>
-      </c>
-      <c r="F88" s="2">
-        <v>0</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>82</v>
-      </c>
-      <c r="B89" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>2933</v>
-      </c>
-      <c r="G89" t="s">
-        <v>101</v>
-      </c>
-      <c r="H89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>84</v>
-      </c>
-      <c r="B90" t="s">
-        <v>108</v>
-      </c>
-      <c r="C90" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>3025</v>
-      </c>
-      <c r="G90" t="s">
-        <v>101</v>
-      </c>
-      <c r="H90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>85</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="2">
-        <v>0</v>
-      </c>
-      <c r="F91" s="2">
-        <v>0</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>86</v>
-      </c>
-      <c r="B92" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>9160</v>
-      </c>
-      <c r="G92" t="s">
-        <v>109</v>
-      </c>
-      <c r="H92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>87</v>
-      </c>
-      <c r="B93" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" t="s">
-        <v>170</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>10729</v>
-      </c>
-      <c r="G93" t="s">
-        <v>109</v>
-      </c>
-      <c r="H93" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>89</v>
-      </c>
-      <c r="B94" t="s">
-        <v>114</v>
-      </c>
-      <c r="C94" t="s">
-        <v>170</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>54284</v>
-      </c>
-      <c r="G94" t="s">
-        <v>109</v>
-      </c>
-      <c r="H94" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>90</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2">
-        <v>0</v>
-      </c>
-      <c r="F95" s="2">
-        <v>0</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>91</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2">
-        <v>0</v>
-      </c>
-      <c r="E96" s="2">
-        <v>0</v>
-      </c>
-      <c r="F96" s="2">
-        <v>0</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>92</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2">
-        <v>0</v>
-      </c>
-      <c r="F97" s="2">
-        <v>0</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>93</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2">
-        <v>0</v>
-      </c>
-      <c r="E98" s="2">
-        <v>0</v>
-      </c>
-      <c r="F98" s="2">
-        <v>0</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>94</v>
-      </c>
-      <c r="B99" t="s">
-        <v>120</v>
-      </c>
-      <c r="C99" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>5563</v>
-      </c>
-      <c r="G99" t="s">
-        <v>118</v>
-      </c>
-      <c r="H99" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>95</v>
-      </c>
-      <c r="B100" t="s">
-        <v>121</v>
-      </c>
-      <c r="C100" t="s">
-        <v>170</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>7708</v>
-      </c>
-      <c r="G100" t="s">
-        <v>118</v>
-      </c>
-      <c r="H100" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>96</v>
-      </c>
-      <c r="B101" t="s">
-        <v>122</v>
-      </c>
-      <c r="C101" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>3457</v>
-      </c>
-      <c r="G101" t="s">
-        <v>118</v>
-      </c>
-      <c r="H101" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>98</v>
-      </c>
-      <c r="B102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C102" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>6873</v>
-      </c>
-      <c r="G102" t="s">
-        <v>118</v>
-      </c>
-      <c r="H102" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>99</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2">
-        <v>0</v>
-      </c>
-      <c r="F103" s="2">
-        <v>0</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>136</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2">
-        <v>2</v>
-      </c>
-      <c r="F104" s="2">
-        <v>0</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>101</v>
-      </c>
-      <c r="B105" t="s">
-        <v>128</v>
-      </c>
-      <c r="C105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>39602</v>
-      </c>
-      <c r="G105" t="s">
-        <v>125</v>
-      </c>
-      <c r="H105" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
-        <v>102</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2">
-        <v>0</v>
-      </c>
-      <c r="F106" s="2">
-        <v>0</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>103</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2">
-        <v>0</v>
-      </c>
-      <c r="F107" s="2">
-        <v>0</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>104</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2">
-        <v>0</v>
-      </c>
-      <c r="F108" s="2">
-        <v>0</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>105</v>
-      </c>
-      <c r="B109" t="s">
-        <v>132</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>2502</v>
-      </c>
-      <c r="G109" t="s">
-        <v>125</v>
-      </c>
-      <c r="H109" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>106</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D110" s="2">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2">
-        <v>0</v>
-      </c>
-      <c r="F110" s="2">
-        <v>0</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>107</v>
-      </c>
-      <c r="B111" t="s">
-        <v>134</v>
-      </c>
-      <c r="C111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>14480</v>
-      </c>
-      <c r="G111" t="s">
-        <v>125</v>
-      </c>
-      <c r="H111" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
-        <v>108</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2">
-        <v>0</v>
-      </c>
-      <c r="F112" s="2">
-        <v>0</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>109</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="2">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2">
-        <v>0</v>
-      </c>
-      <c r="F113" s="2">
-        <v>0</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
-        <v>110</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D114" s="2">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2">
-        <v>0</v>
-      </c>
-      <c r="F114" s="2">
-        <v>0</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>111</v>
-      </c>
-      <c r="B115" t="s">
-        <v>138</v>
-      </c>
-      <c r="C115" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>8561</v>
-      </c>
-      <c r="G115" t="s">
-        <v>125</v>
-      </c>
-      <c r="H115" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
-        <v>112</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D116" s="2">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2">
-        <v>0</v>
-      </c>
-      <c r="F116" s="2">
-        <v>0</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
-        <v>113</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2">
-        <v>0</v>
-      </c>
-      <c r="F117" s="2">
-        <v>0</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>114</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="2">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2">
-        <v>0</v>
-      </c>
-      <c r="F118" s="2">
-        <v>0</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>115</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2">
-        <v>0</v>
-      </c>
-      <c r="F119" s="2">
-        <v>0</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>116</v>
-      </c>
-      <c r="B120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C120" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>2578</v>
-      </c>
-      <c r="G120" t="s">
-        <v>125</v>
-      </c>
-      <c r="H120" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>117</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="2">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2">
-        <v>0</v>
-      </c>
-      <c r="F121" s="2">
-        <v>0</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>118</v>
-      </c>
-      <c r="B122" t="s">
-        <v>145</v>
-      </c>
-      <c r="C122" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>7302</v>
-      </c>
-      <c r="G122" t="s">
-        <v>125</v>
-      </c>
-      <c r="H122" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>119</v>
-      </c>
-      <c r="B123" t="s">
-        <v>146</v>
-      </c>
-      <c r="C123" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>2981</v>
-      </c>
-      <c r="G123" t="s">
-        <v>125</v>
-      </c>
-      <c r="H123" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
-        <v>120</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2">
-        <v>0</v>
-      </c>
-      <c r="F124" s="2">
-        <v>0</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
-        <v>121</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2">
-        <v>0</v>
-      </c>
-      <c r="F125" s="2">
-        <v>0</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>122</v>
-      </c>
-      <c r="B126" t="s">
-        <v>149</v>
-      </c>
-      <c r="C126" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>16091</v>
-      </c>
-      <c r="G126" t="s">
-        <v>125</v>
-      </c>
-      <c r="H126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>123</v>
-      </c>
-      <c r="B127" t="s">
-        <v>150</v>
-      </c>
-      <c r="C127" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>4872</v>
-      </c>
-      <c r="G127" t="s">
-        <v>125</v>
-      </c>
-      <c r="H127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
-        <v>124</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2">
-        <v>0</v>
-      </c>
-      <c r="E128" s="2">
-        <v>0</v>
-      </c>
-      <c r="F128" s="2">
-        <v>0</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
-        <v>126</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="2">
-        <v>0</v>
-      </c>
-      <c r="E129" s="2">
-        <v>0</v>
-      </c>
-      <c r="F129" s="2">
-        <v>0</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
-        <v>127</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="2">
-        <v>0</v>
-      </c>
-      <c r="E130" s="2">
-        <v>0</v>
-      </c>
-      <c r="F130" s="2">
-        <v>0</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
-        <v>128</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D131" s="2">
-        <v>0</v>
-      </c>
-      <c r="E131" s="2">
-        <v>0</v>
-      </c>
-      <c r="F131" s="2">
-        <v>0</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
-        <v>129</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2">
-        <v>0</v>
-      </c>
-      <c r="E132" s="2">
-        <v>0</v>
-      </c>
-      <c r="F132" s="2">
-        <v>0</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
-        <v>130</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2">
-        <v>0</v>
-      </c>
-      <c r="E133" s="2">
-        <v>0</v>
-      </c>
-      <c r="F133" s="2">
-        <v>0</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
-        <v>131</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2">
-        <v>0</v>
-      </c>
-      <c r="E134" s="2">
-        <v>0</v>
-      </c>
-      <c r="F134" s="2">
-        <v>0</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>132</v>
-      </c>
-      <c r="B135" t="s">
-        <v>160</v>
-      </c>
-      <c r="C135" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>3851</v>
-      </c>
-      <c r="G135" t="s">
-        <v>151</v>
-      </c>
-      <c r="H135" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
-        <v>133</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-      <c r="E136" s="2">
-        <v>0</v>
-      </c>
-      <c r="F136" s="2">
-        <v>0</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>134</v>
-      </c>
-      <c r="B137" t="s">
-        <v>162</v>
-      </c>
-      <c r="C137" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>14353</v>
-      </c>
-      <c r="G137" t="s">
-        <v>151</v>
-      </c>
-      <c r="H137" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
-        <v>100</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="2">
-        <v>0</v>
-      </c>
-      <c r="E138" s="2">
-        <v>1</v>
-      </c>
-      <c r="F138" s="2">
-        <v>0</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
-        <v>137</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2">
-        <v>0</v>
-      </c>
-      <c r="E139" s="2">
-        <v>0</v>
-      </c>
-      <c r="F139" s="2">
-        <v>0</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>166</v>
-      </c>
-      <c r="C140" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>20733</v>
-      </c>
-      <c r="G140" t="s">
-        <v>151</v>
-      </c>
-      <c r="H140" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>171</v>
-      </c>
-      <c r="D142">
-        <v>166</v>
-      </c>
-      <c r="E142">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H140" xr:uid="{9ED4F7AD-CC99-D347-A53C-51447CE0F129}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H140">
-      <sortCondition descending="1" ref="D1:D140"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
